--- a/biology/Botanique/Adrienne_de_Cardoville/Adrienne_de_Cardoville.xlsx
+++ b/biology/Botanique/Adrienne_de_Cardoville/Adrienne_de_Cardoville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-‘Adrienne de Cardoville’ est un cultivar de rosier Bourbon obtenu en 1864 par le rosiériste lyonnais Guillot père (1803-1882)[1]. Il porte le nom d'un personnage du roman à succès d'Eugène Sue, Le Juif errant, paru en 1844-1845. Cette rose ancienne est toujours cultivée et elle figure dans de nombreux catalogues d'amateurs de roses à l'aspect romantique[2]. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne et à la roseraie du Val-de-Marne, près de Paris[3].
+‘Adrienne de Cardoville’ est un cultivar de rosier Bourbon obtenu en 1864 par le rosiériste lyonnais Guillot père (1803-1882). Il porte le nom d'un personnage du roman à succès d'Eugène Sue, Le Juif errant, paru en 1844-1845. Cette rose ancienne est toujours cultivée et elle figure dans de nombreux catalogues d'amateurs de roses à l'aspect romantique. On peut notamment l'admirer à l'Europa-Rosarium de Sangerhausen en Allemagne et à la roseraie du Val-de-Marne, près de Paris.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un rosier présentant des fleurs très doubles (26-40 pétales) rose tendre[4],[5], de taille moyenne[1] (150 cm x 150 cm) et de forme bien globuleuse. Sa floraison est remontante.
-Sa zone de rusticité est de 5b à 10b ; il supporte donc bien les froids prononcés à -20° et la chaleur. Il a besoin d'une situation ensoleillée. Il est toujours apprécié pour sa couleur délicate, sa forme en coupe et son parfum subtil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un rosier présentant des fleurs très doubles (26-40 pétales) rose tendre de taille moyenne (150 cm x 150 cm) et de forme bien globuleuse. Sa floraison est remontante.
+Sa zone de rusticité est de 5b à 10b ; il supporte donc bien les froids prononcés à -20° et la chaleur. Il a besoin d'une situation ensoleillée. Il est toujours apprécié pour sa couleur délicate, sa forme en coupe et son parfum subtil.
 			Rose 'Adrienne de Cardoville'.
 			Floraison début juin.
 			Buisson.
